--- a/02_MasterWifoMannheim/99_Backup/Course65.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course65.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD3D0DB4B639A201159901035552DEBF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1171726D-BF28-4694-A4A0-945D801ED921}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>TAX 661 Case Studies in International Tax Planning</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t> International Tax Planning and Tax Structuring using Financing Companies in the case of Outbound Investment  International Tax Planning and Tax Structuring using Financing Companies in the case of Inbound Investment  International Tax Planning and Tax Structuring concerning the German „Zinsschranke“ (Thin-Cap-Rule) and other foreign Anti-Avoidance-Rules  International Tax Planning and Tax Reorganization Tax Act  International Tax Planning and Tax Conflicts</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>The students learn how to apply their skills in basic taxation on practical cases. The students get a deeper insight into the basics of the most important areas in international tax planning and tax structuring. The students learn how to implement their theoretical knowledge into practical szenarios. Thereby special attention is paid to the application of the wording of law – especially using inaccuracies in law. The students learn to develop international tax planning and tax structuring ideas across different types of taxes.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther information on registration</t>
-  </si>
-  <si>
-    <t>Courses Lecture</t>
-  </si>
-  <si>
-    <t>Hours per week Self-study 2 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Form of Assessment</t>
-  </si>
-  <si>
-    <t>Written exam (45 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Michael Schaden (lecturer) / Prof. Dr. Christoph Spengel (person in charge)</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of Application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., LL.M., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>TAX 630</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TAX 661 Case Studies in International Tax Planning</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t> International Tax Planning and Tax Structuring using Financing Companies in the case of Outbound Investment  International Tax Planning and Tax Structuring using Financing Companies in the case of Inbound Investment  International Tax Planning and Tax Structuring concerning the German „Zinsschranke“ (Thin-Cap-Rule) and other foreign Anti-Avoidance-Rules  International Tax Planning and Tax Reorganization Tax Act  International Tax Planning and Tax Conflicts</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The students learn how to apply their skills in basic taxation on practical cases. The students get a deeper insight into the basics of the most important areas in international tax planning and tax structuring. The students learn how to implement their theoretical knowledge into practical szenarios. Thereby special attention is paid to the application of the wording of law – especially using inaccuracies in law. The students learn to develop international tax planning and tax structuring ideas across different types of taxes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TAX 630</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther information on registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Lecture</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hours per week Self-study 2 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of Assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (45 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Michael Schaden (lecturer) / Prof. Dr. Christoph Spengel (person in charge)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of Application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., LL.M., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
